--- a/israeli_vaccination_data_analysis_start.xlsx
+++ b/israeli_vaccination_data_analysis_start.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50c122d173c4c392/_Katz/Courses/Data Driven Organizations/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{5549D065-8479-439F-98C9-6763E114659A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F2A8279A-9AB8-4ED8-B03E-253FAAEEC729}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C09DB3-B2A8-4D44-AA21-439E1F80A222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{F3BC2D1D-D8A4-4834-AFE1-B059B15AE70E}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F3BC2D1D-D8A4-4834-AFE1-B059B15AE70E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Age</t>
   </si>
@@ -75,24 +75,6 @@
   <si>
     <t>Fully Vax
 per 100K</t>
-  </si>
-  <si>
-    <t>Definitions</t>
-  </si>
-  <si>
-    <t>Severe Cases = hospitalized</t>
-  </si>
-  <si>
-    <t>Efficacy vs. severe disease = 1 - (% fully vaxed severe cases per 100K / % not vaxed severe cases per 100K)</t>
-  </si>
-  <si>
-    <t>(1) Do you have enough information to calculate the total population?  What does this total population represent?</t>
-  </si>
-  <si>
-    <t>(2) Calculate the Efficacy vs. Disease; Explain your results.</t>
-  </si>
-  <si>
-    <t>(3) From your calculation of efficacy vs. disease, are you able to compare the rate of severe cases in unvaccinated individuals to that in vaccinated individuals?</t>
   </si>
 </sst>
 </file>
@@ -253,84 +235,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -658,46 +634,46 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12" style="14" customWidth="1"/>
-    <col min="2" max="6" width="18.59765625" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="9.06640625" style="14"/>
+    <col min="1" max="1" width="12" style="12" customWidth="1"/>
+    <col min="2" max="6" width="18.59765625" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -705,118 +681,94 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="18">
         <v>1116834</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="19">
         <v>3501118</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="20">
         <v>43</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="20">
         <v>11</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>0.23300000000000001</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <f>0.73</f>
         <v>0.73</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="21">
         <v>186078</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="22">
         <v>2133516</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="23">
         <v>171</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="23">
         <v>290</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>0.90400000000000003</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B11" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B12" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="B11" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B20" s="19"/>
+      <c r="B20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/israeli_vaccination_data_analysis_start.xlsx
+++ b/israeli_vaccination_data_analysis_start.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C09DB3-B2A8-4D44-AA21-439E1F80A222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E805ED9E-A5AC-4773-AFCD-58EE1C57570A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F3BC2D1D-D8A4-4834-AFE1-B059B15AE70E}"/>
   </bookViews>
@@ -308,12 +308,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,7 +630,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -759,7 +755,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B11" s="17"/>
     </row>
-    <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
@@ -771,10 +767,9 @@
       <c r="B20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/israeli_vaccination_data_analysis_start.xlsx
+++ b/israeli_vaccination_data_analysis_start.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E805ED9E-A5AC-4773-AFCD-58EE1C57570A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34723C75-DB9A-4680-92F2-9A556DC11179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F3BC2D1D-D8A4-4834-AFE1-B059B15AE70E}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,18 +50,6 @@
     <t>Efficacy</t>
   </si>
   <si>
-    <t>&lt;50</t>
-  </si>
-  <si>
-    <t>&gt;50</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>vs. severe disease</t>
-  </si>
-  <si>
     <t>Not Vax
 %</t>
   </si>
@@ -75,6 +65,18 @@
   <si>
     <t>Fully Vax
 per 100K</t>
+  </si>
+  <si>
+    <t>vs. severe disease</t>
+  </si>
+  <si>
+    <t>&lt;50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>&gt;50</t>
   </si>
 </sst>
 </file>
@@ -82,8 +84,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -138,7 +140,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -146,10 +150,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -175,17 +225,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -194,122 +233,82 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,7 +343,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -356,7 +355,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -403,23 +402,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -455,23 +437,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -623,148 +588,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4A4259-D704-451E-96F0-F0323E8EB200}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12" style="12" customWidth="1"/>
-    <col min="2" max="6" width="18.59765625" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9.06640625" style="12"/>
+    <col min="2" max="2" width="14.265625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="12.9296875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:6" ht="78.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B3" s="8">
+        <v>1116834</v>
+      </c>
+      <c r="C3" s="9">
+        <v>3501118</v>
+      </c>
+      <c r="D3" s="10">
+        <v>43</v>
+      </c>
+      <c r="E3" s="10">
+        <v>11</v>
+      </c>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="18">
-        <v>1116834</v>
-      </c>
-      <c r="C3" s="19">
-        <v>3501118</v>
-      </c>
-      <c r="D3" s="20">
-        <v>43</v>
-      </c>
-      <c r="E3" s="20">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="B4" s="12">
         <v>0.23300000000000001</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="13">
         <f>0.73</f>
         <v>0.73</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="21">
+        <v>11</v>
+      </c>
+      <c r="B5" s="16">
         <v>186078</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="17">
         <v>2133516</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="18">
         <v>171</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="18">
         <v>290</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B6" s="13">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="22">
         <v>0.90400000000000003</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B11" s="17"/>
-    </row>
-    <row r="16" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B20" s="17"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -772,6 +707,5 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>